--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543691.1434245012</v>
+        <v>-546417.2523180505</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12434702.24778879</v>
+        <v>12436650.78579456</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13344472.14022019</v>
+        <v>13361361.83122014</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>232.2791855053264</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
-        <v>232.01072298284</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>107.8752295958179</v>
+        <v>31.38452933319286</v>
       </c>
     </row>
     <row r="4">
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>163.8762728407843</v>
+        <v>169.9770215815574</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>242.1438425870811</v>
+        <v>95.72980030982133</v>
       </c>
       <c r="G5" t="n">
-        <v>12.32737253770154</v>
+        <v>383.6877278154315</v>
       </c>
       <c r="H5" t="n">
-        <v>309.0033455406261</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863688</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.218940162979</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.0711893754161</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>32.67896016689695</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7515565528791</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>96.86045623671566</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
-        <v>34.58570832903573</v>
+        <v>36.2734647695173</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.316630644515456</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.1132009952676</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.748010269845</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8366478302951</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>20.34813075728393</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.2828405472751</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.2430097901799</v>
+        <v>215.835007103079</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.31131387154264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>163.6733707170994</v>
+        <v>204.9088354658385</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>3.964671962416766</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>242.173809640133</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.84210979384</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>293.7923984650544</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>38.50753934517903</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>107.3735153872347</v>
+        <v>79.07074324543638</v>
       </c>
       <c r="T11" t="n">
-        <v>203.5694517141623</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9888026901329</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>180.2331653280363</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9568709253498</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>89.18546609715634</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>17.35056874031791</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>127.3522640102387</v>
+        <v>123.6502311075613</v>
       </c>
       <c r="T12" t="n">
-        <v>190.5448695167773</v>
+        <v>189.7415240061373</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7843658811155</v>
+        <v>225.7712536040104</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>39.90118684021409</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.9900953252795</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.4374944669912</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>95.27843509310352</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>87.32636930349075</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>53.80841570818001</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.04917322725615</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>100.9410961977589</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>145.0635245304589</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>146.7151441592121</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758728</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053458</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673021</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>162.1514830970597</v>
       </c>
     </row>
     <row r="29">
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179031</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>173.574028979552</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428129</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085811994</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797029</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>117.6579322793589</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>228.9553704673035</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>108.2950343703284</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.8162363079209</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079209</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="D2" t="n">
-        <v>566.8162363079209</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X2" t="n">
-        <v>566.8162363079209</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.8162363079209</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.881140538862</v>
+        <v>582.3653976835424</v>
       </c>
       <c r="C3" t="n">
-        <v>314.881140538862</v>
+        <v>407.9123684024154</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>678.0833756466777</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>678.0833756466777</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>423.8460189184761</v>
+        <v>782.2822794846134</v>
       </c>
       <c r="X3" t="n">
-        <v>423.8460189184761</v>
+        <v>782.2822794846134</v>
       </c>
       <c r="Y3" t="n">
-        <v>314.881140538862</v>
+        <v>750.5807347036105</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328.2753322811682</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>328.2753322811682</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>328.2753322811682</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>328.2753322811682</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>328.2753322811682</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092332</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>328.2753322811682</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>328.2753322811682</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>328.2753322811682</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>328.2753322811682</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>328.2753322811682</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>601.9792082044194</v>
+        <v>928.3307881281298</v>
       </c>
       <c r="C5" t="n">
-        <v>601.9792082044194</v>
+        <v>928.3307881281298</v>
       </c>
       <c r="D5" t="n">
-        <v>601.9792082044194</v>
+        <v>928.3307881281298</v>
       </c>
       <c r="E5" t="n">
-        <v>601.9792082044194</v>
+        <v>928.3307881281298</v>
       </c>
       <c r="F5" t="n">
-        <v>357.3894682174688</v>
+        <v>831.6340201384113</v>
       </c>
       <c r="G5" t="n">
-        <v>344.937576765245</v>
+        <v>444.0706587086825</v>
       </c>
       <c r="H5" t="n">
-        <v>32.81298531006704</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="I5" t="n">
-        <v>32.81298531006704</v>
+        <v>30.69501822523452</v>
       </c>
       <c r="J5" t="n">
-        <v>103.5826192495612</v>
+        <v>93.76641159275187</v>
       </c>
       <c r="K5" t="n">
-        <v>260.3864736357571</v>
+        <v>239.0325989245571</v>
       </c>
       <c r="L5" t="n">
-        <v>491.8172824050456</v>
+        <v>456.1499114825642</v>
       </c>
       <c r="M5" t="n">
-        <v>780.9980865478808</v>
+        <v>729.404193174887</v>
       </c>
       <c r="N5" t="n">
-        <v>1079.471946809803</v>
+        <v>1011.693823202381</v>
       </c>
       <c r="O5" t="n">
-        <v>1347.977088085469</v>
+        <v>1264.916654798415</v>
       </c>
       <c r="P5" t="n">
-        <v>1542.639013219301</v>
+        <v>1446.535482189412</v>
       </c>
       <c r="Q5" t="n">
-        <v>1640.649265503352</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="R5" t="n">
-        <v>1640.649265503352</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="S5" t="n">
-        <v>1498.003871399333</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="T5" t="n">
-        <v>1285.810750818104</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="U5" t="n">
-        <v>1285.810750818104</v>
+        <v>1281.099443398244</v>
       </c>
       <c r="V5" t="n">
-        <v>954.7478634745336</v>
+        <v>1281.099443398244</v>
       </c>
       <c r="W5" t="n">
-        <v>601.9792082044194</v>
+        <v>928.3307881281298</v>
       </c>
       <c r="X5" t="n">
-        <v>601.9792082044194</v>
+        <v>928.3307881281298</v>
       </c>
       <c r="Y5" t="n">
-        <v>601.9792082044194</v>
+        <v>928.3307881281298</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>608.4816862872542</v>
+        <v>641.6053036479332</v>
       </c>
       <c r="C6" t="n">
-        <v>608.4816862872542</v>
+        <v>641.6053036479332</v>
       </c>
       <c r="D6" t="n">
-        <v>608.4816862872542</v>
+        <v>608.5962529742999</v>
       </c>
       <c r="E6" t="n">
-        <v>449.2442312817988</v>
+        <v>449.3587979688443</v>
       </c>
       <c r="F6" t="n">
-        <v>302.7096733086837</v>
+        <v>302.8242399957293</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5868889118361</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
-        <v>67.74804422828495</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>32.81298531006704</v>
+        <v>30.69501822523452</v>
       </c>
       <c r="J6" t="n">
-        <v>56.14504750690879</v>
+        <v>49.44206107563431</v>
       </c>
       <c r="K6" t="n">
-        <v>174.1780828024254</v>
+        <v>159.6385680169448</v>
       </c>
       <c r="L6" t="n">
-        <v>379.2106060936729</v>
+        <v>539.4894185542221</v>
       </c>
       <c r="M6" t="n">
-        <v>637.8307581874705</v>
+        <v>785.8131792249682</v>
       </c>
       <c r="N6" t="n">
-        <v>917.7044610746581</v>
+        <v>1053.065041797191</v>
       </c>
       <c r="O6" t="n">
-        <v>1171.990276938811</v>
+        <v>1275.328488962709</v>
       </c>
       <c r="P6" t="n">
-        <v>1578.050970150891</v>
+        <v>1434.381434161397</v>
       </c>
       <c r="Q6" t="n">
-        <v>1640.649265503352</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="R6" t="n">
-        <v>1639.319335559397</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="S6" t="n">
-        <v>1495.770647685389</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="T6" t="n">
-        <v>1300.065586806758</v>
+        <v>1338.84626881341</v>
       </c>
       <c r="U6" t="n">
-        <v>1071.947760715551</v>
+        <v>1338.84626881341</v>
       </c>
       <c r="V6" t="n">
-        <v>836.795652483808</v>
+        <v>1103.694160581668</v>
       </c>
       <c r="W6" t="n">
-        <v>836.795652483808</v>
+        <v>849.456803853466</v>
       </c>
       <c r="X6" t="n">
-        <v>816.2419850522081</v>
+        <v>641.6053036479332</v>
       </c>
       <c r="Y6" t="n">
-        <v>608.4816862872542</v>
+        <v>641.6053036479332</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>329.8195722203131</v>
+        <v>182.9438487387297</v>
       </c>
       <c r="C7" t="n">
-        <v>329.8195722203131</v>
+        <v>182.9438487387297</v>
       </c>
       <c r="D7" t="n">
-        <v>179.7029328079774</v>
+        <v>182.9438487387297</v>
       </c>
       <c r="E7" t="n">
-        <v>179.7029328079774</v>
+        <v>182.9438487387297</v>
       </c>
       <c r="F7" t="n">
-        <v>32.81298531006704</v>
+        <v>182.9438487387297</v>
       </c>
       <c r="G7" t="n">
-        <v>32.81298531006704</v>
+        <v>182.9438487387297</v>
       </c>
       <c r="H7" t="n">
-        <v>32.81298531006704</v>
+        <v>30.69501822523452</v>
       </c>
       <c r="I7" t="n">
-        <v>32.81298531006704</v>
+        <v>30.69501822523452</v>
       </c>
       <c r="J7" t="n">
-        <v>33.80329535000946</v>
+        <v>30.69501822523452</v>
       </c>
       <c r="K7" t="n">
-        <v>165.2675156704465</v>
+        <v>157.4322756223268</v>
       </c>
       <c r="L7" t="n">
-        <v>389.0228907366659</v>
+        <v>375.1387655830391</v>
       </c>
       <c r="M7" t="n">
-        <v>635.3306840199255</v>
+        <v>615.0688576388155</v>
       </c>
       <c r="N7" t="n">
-        <v>881.2164449257494</v>
+        <v>854.7285647974828</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.315447371439</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1249.426430214429</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1274.766850876289</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1156.299335171971</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="S7" t="n">
-        <v>1156.299335171971</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="T7" t="n">
-        <v>931.8114464950219</v>
+        <v>1016.185377805206</v>
       </c>
       <c r="U7" t="n">
-        <v>931.8114464950219</v>
+        <v>727.0455069815771</v>
       </c>
       <c r="V7" t="n">
-        <v>677.126958289135</v>
+        <v>472.3610187756902</v>
       </c>
       <c r="W7" t="n">
-        <v>387.7097882521744</v>
+        <v>182.9438487387297</v>
       </c>
       <c r="X7" t="n">
-        <v>387.7097882521744</v>
+        <v>182.9438487387297</v>
       </c>
       <c r="Y7" t="n">
-        <v>329.8195722203131</v>
+        <v>182.9438487387297</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1733.111475321975</v>
+        <v>1841.137109080772</v>
       </c>
       <c r="C8" t="n">
-        <v>1733.111475321975</v>
+        <v>1841.137109080772</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.111475321975</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y8" t="n">
-        <v>1733.111475321975</v>
+        <v>1841.137109080772</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.9783454282415</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C10" t="n">
-        <v>471.9783454282415</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9783454282415</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282415</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.826110336989</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W10" t="n">
-        <v>1102.408940300029</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X10" t="n">
-        <v>874.4193894020113</v>
+        <v>352.2580926322055</v>
       </c>
       <c r="Y10" t="n">
-        <v>653.6268102584812</v>
+        <v>352.2580926322055</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1599.050615477279</v>
+        <v>2040.546330724785</v>
       </c>
       <c r="C11" t="n">
-        <v>1230.088098536867</v>
+        <v>1671.583813784373</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.088098536867</v>
+        <v>1313.318115177623</v>
       </c>
       <c r="E11" t="n">
-        <v>1230.088098536867</v>
+        <v>927.5298625793782</v>
       </c>
       <c r="F11" t="n">
-        <v>819.1021937472594</v>
+        <v>516.5439577897706</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1101636524716</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3501652029217</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>68.45366081385201</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>264.0225153720946</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>607.8680506052204</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1071.340603821916</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1618.712558320095</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2179.555371680646</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>2695.808075459762</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3101.916813347855</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3358.71481609177</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3422.6830406926</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3314.224944341858</v>
+        <v>3797.013858174384</v>
       </c>
       <c r="T11" t="n">
-        <v>3108.599235539674</v>
+        <v>3797.013858174384</v>
       </c>
       <c r="U11" t="n">
-        <v>2855.075192418327</v>
+        <v>3543.519916295912</v>
       </c>
       <c r="V11" t="n">
-        <v>2524.012305074756</v>
+        <v>3543.519916295912</v>
       </c>
       <c r="W11" t="n">
-        <v>2171.243649804642</v>
+        <v>3190.751261025798</v>
       </c>
       <c r="X11" t="n">
-        <v>1989.18994745309</v>
+        <v>2817.285502764718</v>
       </c>
       <c r="Y11" t="n">
-        <v>1599.050615477279</v>
+        <v>2427.146170788907</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5453407780575</v>
+        <v>941.5522947932185</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0923114969305</v>
+        <v>767.0992655120915</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1579018356792</v>
+        <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9204468302237</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3858888571086</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0658172153412</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>85.97948782427414</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>68.45366081385201</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>166.1152838509684</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="K12" t="n">
-        <v>411.1893776607783</v>
+        <v>84.53144813504218</v>
       </c>
       <c r="L12" t="n">
-        <v>718.9094300569927</v>
+        <v>503.2284887929939</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.871243621598</v>
+        <v>1011.185054749522</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.362588599099</v>
+        <v>1546.994364450732</v>
       </c>
       <c r="O12" t="n">
-        <v>2082.357720987625</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2400.910364072636</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
-        <v>2563.935173453942</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
-        <v>2563.935173453942</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.296522938549</v>
+        <v>2434.478772117604</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.826957770087</v>
+        <v>2242.8206670609</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.761941728556</v>
+        <v>2014.768895743717</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.609833496814</v>
+        <v>1779.616787511975</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.372476768612</v>
+        <v>1525.379430783773</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.520976563079</v>
+        <v>1317.52793057824</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.760677798125</v>
+        <v>1109.767631813286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>647.193909282541</v>
+        <v>264.7318425453605</v>
       </c>
       <c r="C13" t="n">
-        <v>478.2577263546341</v>
+        <v>264.7318425453605</v>
       </c>
       <c r="D13" t="n">
-        <v>478.2577263546341</v>
+        <v>264.7318425453605</v>
       </c>
       <c r="E13" t="n">
-        <v>478.2577263546341</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>478.257726354634</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>310.5909633998062</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>164.6945043422394</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>68.45366081385201</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>116.0759486326625</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>324.1708332213179</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>645.9870755365546</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>995.686304185768</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1342.505083215764</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.832064381505</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>1883.715688650502</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>1964.286551297853</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>1876.078097455943</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>1876.078097455943</v>
+        <v>1949.247121276104</v>
       </c>
       <c r="T13" t="n">
-        <v>1876.078097455943</v>
+        <v>1728.355788710544</v>
       </c>
       <c r="U13" t="n">
-        <v>1821.726162397176</v>
+        <v>1439.264095659995</v>
       </c>
       <c r="V13" t="n">
-        <v>1567.041674191289</v>
+        <v>1184.579607454108</v>
       </c>
       <c r="W13" t="n">
-        <v>1277.624504154328</v>
+        <v>895.1624374171477</v>
       </c>
       <c r="X13" t="n">
-        <v>1049.634953256311</v>
+        <v>667.1728865191303</v>
       </c>
       <c r="Y13" t="n">
-        <v>828.8423741127807</v>
+        <v>446.3803073756002</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5264,34 +5264,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,16 +5303,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5321,7 +5321,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>801.6918836311995</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>801.6918836311995</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>651.5752442188638</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5473,13 +5473,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614394</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179092</v>
+        <v>983.3403484614392</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>951.7772127656158</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R19" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235162</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987576</v>
+        <v>1133.425677595855</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032295</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="D22" t="n">
         <v>402.7245934908938</v>
@@ -5902,58 +5902,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,58 +5981,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188009</v>
+        <v>580.8993044876689</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876689</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>430.7826650753332</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>282.8695714929401</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>135.9796239950297</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490406</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="26">
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>819.5509715957215</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6446,16 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400713</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511393</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138412</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703111</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6683,34 +6683,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400708</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121639</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121639</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121639</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270439</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138406</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703105</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="35">
@@ -6920,19 +6920,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.853600740071</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138406</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703107</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,19 +7193,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123002</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2261.070983590887</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2041.469518613828</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1752.394291958026</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1497.709803752139</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>980.3030828171613</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7391,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>974.1018203925703</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>753.3092412490403</v>
       </c>
     </row>
     <row r="44">
@@ -7628,61 +7628,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852888</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>513.8536007400729</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>344.917417812166</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>344.917417812166</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>344.917417812166</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>344.917417812166</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703127</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.68426755042395</v>
+        <v>34.43939438637003</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>187.2277845514395</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>20.68267746171858</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>240.1420700506329</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.41009271441784</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515139</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>19.81436275071573</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>189.4979353504328</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>106.5327758063551</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>189.1466462951117</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.3963576501519</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>232.4014745192284</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>123.7828069546812</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>45.49286644881028</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.85445046951749</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>80.64613085857826</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>38.59775584152661</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>139.4693302300321</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>123.7828069546816</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194248</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>56.43317025503508</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194215</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194265</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6.257951202385279</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405079</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>63.3683537222856</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194058</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194044</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1182014.355877943</v>
+        <v>1181780.53131725</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>991857.1481761276</v>
+        <v>1051259.000671163</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1177303.849636752</v>
+        <v>1157503.232138407</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1177303.849636752</v>
+        <v>1157503.232138407</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1177303.849636752</v>
+        <v>1157503.232138407</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>224543.7134692585</v>
+        <v>238091.5043891789</v>
       </c>
       <c r="F2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
         <v>262322.6448992519</v>
@@ -26344,16 +26344,16 @@
         <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="N2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="O2" t="n">
         <v>262322.644899252</v>
       </c>
-      <c r="N2" t="n">
-        <v>266838.5752058923</v>
-      </c>
-      <c r="O2" t="n">
-        <v>266838.5752058923</v>
-      </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>262322.6448992518</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>162110.081325821</v>
+        <v>132804.2190657073</v>
       </c>
       <c r="D3" t="n">
-        <v>237671.5214086515</v>
+        <v>265413.0723929372</v>
       </c>
       <c r="E3" t="n">
-        <v>205230.2108867404</v>
+        <v>313577.1573545777</v>
       </c>
       <c r="F3" t="n">
-        <v>295086.0204034273</v>
+        <v>189308.2687704287</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
-        <v>37691.14117278904</v>
+        <v>30877.42926417433</v>
       </c>
       <c r="L3" t="n">
-        <v>58317.8649271537</v>
+        <v>65018.34502049553</v>
       </c>
       <c r="M3" t="n">
-        <v>53600.27361953162</v>
+        <v>81897.40371273085</v>
       </c>
       <c r="N3" t="n">
-        <v>97078.76859608517</v>
+        <v>49839.57413202358</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246753.8673982314</v>
+        <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>202597.5826084248</v>
+        <v>210579.7944078828</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>7953.12313188391</v>
+        <v>8011.893867085435</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731982</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731994</v>
+        <v>8117.312426732013</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426732009</v>
+        <v>8117.312426732025</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26448,16 +26448,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731994</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982545</v>
+        <v>8117.312426732047</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982546</v>
+        <v>8117.312426732005</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982545</v>
+        <v>8117.312426732016</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>74700.12926702855</v>
+        <v>72593.65038667497</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>76213.65119418017</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26503,13 +26503,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-723051.0759877985</v>
+        <v>-723051.0759877987</v>
       </c>
       <c r="C6" t="n">
-        <v>-172569.2179953823</v>
+        <v>-149139.088654373</v>
       </c>
       <c r="D6" t="n">
-        <v>-198088.7189044679</v>
+        <v>-225830.2698887535</v>
       </c>
       <c r="E6" t="n">
-        <v>-64853.27174354593</v>
+        <v>-168856.1632138446</v>
       </c>
       <c r="F6" t="n">
-        <v>-142003.2177548145</v>
+        <v>-36260.20404725151</v>
       </c>
       <c r="G6" t="n">
-        <v>153082.8026486128</v>
+        <v>153048.0647231772</v>
       </c>
       <c r="H6" t="n">
-        <v>153082.8026486128</v>
+        <v>153048.0647231771</v>
       </c>
       <c r="I6" t="n">
-        <v>153082.8026486129</v>
+        <v>153048.0647231771</v>
       </c>
       <c r="J6" t="n">
-        <v>84083.64822949878</v>
+        <v>84048.91030406294</v>
       </c>
       <c r="K6" t="n">
-        <v>115391.6614758238</v>
+        <v>122170.6354590028</v>
       </c>
       <c r="L6" t="n">
-        <v>94764.93772145915</v>
+        <v>88029.71970268161</v>
       </c>
       <c r="M6" t="n">
-        <v>99482.52902908127</v>
+        <v>71150.66101044629</v>
       </c>
       <c r="N6" t="n">
-        <v>50487.51906606625</v>
+        <v>103208.4905911535</v>
       </c>
       <c r="O6" t="n">
-        <v>147566.2876621514</v>
+        <v>153048.0647231771</v>
       </c>
       <c r="P6" t="n">
-        <v>147566.2876621515</v>
+        <v>153048.064723177</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>6.632408907794991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>740.1220381365873</v>
+        <v>717.3319511695751</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1109.58114567214</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>410.162316375838</v>
+        <v>383.6877278154315</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>855.67076017315</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>126.0670243671091</v>
+        <v>103.2769374000967</v>
       </c>
       <c r="D3" t="n">
-        <v>193.942853980952</v>
+        <v>216.732940947964</v>
       </c>
       <c r="E3" t="n">
-        <v>175.5162535546008</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
-        <v>258.3943546695336</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>146.4484363743318</v>
+        <v>119.9738478139253</v>
       </c>
       <c r="D4" t="n">
-        <v>230.4225157242008</v>
+        <v>256.8971042846072</v>
       </c>
       <c r="E4" t="n">
-        <v>215.0859280731113</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="F4" t="n">
-        <v>317.0375279264981</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>146.4484363743318</v>
+        <v>119.9738478139253</v>
       </c>
       <c r="L4" t="n">
-        <v>230.4225157242008</v>
+        <v>256.8971042846072</v>
       </c>
       <c r="M4" t="n">
-        <v>215.0859280731113</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>317.0375279264981</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>146.4484363743318</v>
+        <v>119.9738478139253</v>
       </c>
       <c r="L4" t="n">
-        <v>230.4225157242008</v>
+        <v>256.8971042846072</v>
       </c>
       <c r="M4" t="n">
-        <v>215.0859280731113</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>317.0375279264981</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>180.5549891403836</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27433,16 +27433,16 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
-        <v>137.720377695629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>97.80746618148646</v>
+        <v>174.2981664441115</v>
       </c>
     </row>
     <row r="4">
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>122.3823576618931</v>
+        <v>116.2816089211201</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>164.7322031546304</v>
+        <v>311.1462454318901</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>28.73126316233841</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>95.76813127790022</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1076237096418</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>114.7661053977418</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713806</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>185.4248544461935</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6563330601797</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3609536009218</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.3140207935561</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643522</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7573530024175</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>6.583598439141866</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2462304674938</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>161.2733394805522</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>191.0096709035836</v>
+        <v>149.7742061548445</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>175.8673082195205</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>9.963833683694986</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.636401452053564e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,22 +30508,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.975364977433514</v>
+        <v>2.883746537365124</v>
       </c>
       <c r="H5" t="n">
-        <v>30.47145657514099</v>
+        <v>29.53316922579058</v>
       </c>
       <c r="I5" t="n">
-        <v>114.7077582925057</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>252.530383253448</v>
+        <v>244.7543826756934</v>
       </c>
       <c r="K5" t="n">
-        <v>378.4775827482088</v>
+        <v>366.8233736023591</v>
       </c>
       <c r="L5" t="n">
-        <v>469.5349086763397</v>
+        <v>455.0768316952472</v>
       </c>
       <c r="M5" t="n">
-        <v>522.448055593773</v>
+        <v>506.3606591791141</v>
       </c>
       <c r="N5" t="n">
-        <v>530.901811335906</v>
+        <v>514.5541040284029</v>
       </c>
       <c r="O5" t="n">
-        <v>501.3155258415514</v>
+        <v>485.8788493974783</v>
       </c>
       <c r="P5" t="n">
-        <v>427.8612029611615</v>
+        <v>414.6863567562768</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.3059447068237</v>
+        <v>311.4121838868882</v>
       </c>
       <c r="R5" t="n">
-        <v>186.9012702637082</v>
+        <v>181.1461434277621</v>
       </c>
       <c r="S5" t="n">
-        <v>67.80112942326629</v>
+        <v>65.71337422020783</v>
       </c>
       <c r="T5" t="n">
-        <v>13.02466018871522</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2380291981946811</v>
+        <v>0.2306997229892098</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.591960610331528</v>
+        <v>1.542940423270407</v>
       </c>
       <c r="H6" t="n">
-        <v>15.37498799978081</v>
+        <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>54.81092452237935</v>
+        <v>53.12316808189778</v>
       </c>
       <c r="J6" t="n">
-        <v>150.4053662594361</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>257.0667271516485</v>
+        <v>249.1510419453797</v>
       </c>
       <c r="L6" t="n">
-        <v>345.6579386599223</v>
+        <v>335.0143230438662</v>
       </c>
       <c r="M6" t="n">
-        <v>403.36651078444</v>
+        <v>390.9459133874184</v>
       </c>
       <c r="N6" t="n">
-        <v>414.0424220703915</v>
+        <v>401.2930884189116</v>
       </c>
       <c r="O6" t="n">
-        <v>378.7679264414666</v>
+        <v>367.1047769348673</v>
       </c>
       <c r="P6" t="n">
-        <v>303.9946537395353</v>
+        <v>294.6339480190657</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.2123754521438</v>
+        <v>196.9549915739558</v>
       </c>
       <c r="R6" t="n">
-        <v>98.84120350812768</v>
+        <v>95.79765189392933</v>
       </c>
       <c r="S6" t="n">
-        <v>29.56997010857024</v>
+        <v>28.65944163399197</v>
       </c>
       <c r="T6" t="n">
-        <v>6.416718424976636</v>
+        <v>6.219132670989049</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047342506797058</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.334646298279092</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.86621890651775</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>40.13645413370215</v>
+        <v>38.90055892572057</v>
       </c>
       <c r="J7" t="n">
-        <v>94.35949328833178</v>
+        <v>91.45394400402925</v>
       </c>
       <c r="K7" t="n">
-        <v>155.0616335636981</v>
+        <v>150.2869235401175</v>
       </c>
       <c r="L7" t="n">
-        <v>198.4255051096025</v>
+        <v>192.3155201545448</v>
       </c>
       <c r="M7" t="n">
-        <v>209.2118738293307</v>
+        <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
-        <v>204.2372830811997</v>
+        <v>197.9483399022535</v>
       </c>
       <c r="O7" t="n">
-        <v>188.6461876876666</v>
+        <v>182.8373307669599</v>
       </c>
       <c r="P7" t="n">
-        <v>161.419403202773</v>
+        <v>156.4489225960659</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.7584277586247</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>60.01055082989442</v>
+        <v>58.1626857456511</v>
       </c>
       <c r="S7" t="n">
-        <v>23.25924503455471</v>
+        <v>22.54303853101762</v>
       </c>
       <c r="T7" t="n">
-        <v>5.702579638101573</v>
+        <v>5.526983886060658</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07279888899704146</v>
+        <v>0.07055724109864681</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.460627721295032</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>45.68240365071276</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>171.9683502252269</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>378.5902020602646</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>567.4085735026835</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>703.9205091282664</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>783.2471973668469</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>795.9209558799765</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>751.565588976349</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>641.4438421068777</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>481.6976118379993</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>280.1999060977993</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>101.6465541990107</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>19.52639784996901</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3568502177036025</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.38664623786083</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>23.04997813934012</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>82.17181125968209</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>225.485730744562</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>385.3910286812376</v>
+        <v>144.9058654583201</v>
       </c>
       <c r="L12" t="n">
-        <v>449.3827155336261</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>604.7217243913162</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>620.7269090303041</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>567.8438529177037</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>455.7447539648457</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>304.6532987136035</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>44.33090709359915</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>9.619859178044306</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1570161998592652</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.000884033179269</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>17.78967804044842</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>60.17203983415476</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>141.4625011457743</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>232.4663449457368</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>297.4768861692161</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>313.6476671282739</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>306.1898266409696</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>282.8158631624662</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>241.9978288856089</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>167.5467529964932</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>89.96702207367873</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>34.86995174186052</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>8.549231778129601</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1091391290825057</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,13 +32561,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>604.7968300725072</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.48447872676169</v>
+        <v>63.70847814900711</v>
       </c>
       <c r="K5" t="n">
-        <v>158.3877317032282</v>
+        <v>146.7335225573786</v>
       </c>
       <c r="L5" t="n">
-        <v>233.7684937063525</v>
+        <v>219.3104167252599</v>
       </c>
       <c r="M5" t="n">
-        <v>292.1018223665003</v>
+        <v>276.0144259518414</v>
       </c>
       <c r="N5" t="n">
-        <v>301.4887477393151</v>
+        <v>285.141040431812</v>
       </c>
       <c r="O5" t="n">
-        <v>271.2173144198647</v>
+        <v>255.7806379757916</v>
       </c>
       <c r="P5" t="n">
-        <v>196.628207205892</v>
+        <v>183.4533610010073</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.00025483237417</v>
+        <v>89.10649401243873</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.56773959276944</v>
+        <v>18.93640691959575</v>
       </c>
       <c r="K6" t="n">
-        <v>119.2252881772895</v>
+        <v>111.3096029710207</v>
       </c>
       <c r="L6" t="n">
-        <v>207.1035588800481</v>
+        <v>383.6877278154315</v>
       </c>
       <c r="M6" t="n">
-        <v>261.2324768624217</v>
+        <v>248.8118794654001</v>
       </c>
       <c r="N6" t="n">
-        <v>282.7007099870582</v>
+        <v>269.9513763355783</v>
       </c>
       <c r="O6" t="n">
-        <v>256.8543594587407</v>
+        <v>224.5085324904229</v>
       </c>
       <c r="P6" t="n">
-        <v>410.162316375838</v>
+        <v>160.6595406047355</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.23060136612224</v>
+        <v>101.3833102023521</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.000313171659002</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>132.7921417378152</v>
+        <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
-        <v>226.0155303699186</v>
+        <v>219.9055454148609</v>
       </c>
       <c r="M7" t="n">
-        <v>248.7957507911713</v>
+        <v>242.3536283391681</v>
       </c>
       <c r="N7" t="n">
-        <v>248.3694554604283</v>
+        <v>242.0805122814821</v>
       </c>
       <c r="O7" t="n">
-        <v>213.2313156017063</v>
+        <v>207.4224586809996</v>
       </c>
       <c r="P7" t="n">
-        <v>158.6979624676665</v>
+        <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.59638450693029</v>
+        <v>22.15508137491145</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750462</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>197.5442975335783</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>347.3187224577029</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>468.1540941582792</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>552.9009641395742</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>566.5078922833857</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>521.4673775546622</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>410.2108463516082</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>259.3919219635497</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>64.6143682836672</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>98.64810407789534</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>247.5495897068786</v>
+        <v>7.064426483961053</v>
       </c>
       <c r="L12" t="n">
-        <v>310.828335753752</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>462.5876904692979</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>489.3851969469708</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>425.2476084732592</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>321.7703465505155</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>164.671524627582</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>48.10332102910152</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>210.196853119854</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>325.0669114295322</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>353.2315440901145</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>350.3219990201982</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>307.4009910765059</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>239.2763881505024</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.38470974479877</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066233</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,13 +36209,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>462.2005856280628</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
